--- a/datos/precios/Precio_Bolsa_Nacional_($kwh)_1995.xlsx
+++ b/datos/precios/Precio_Bolsa_Nacional_($kwh)_1995.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Docs UNAL\2019-II\RNA\evaluacion-vdjaramillo-master\datos\precios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="132" windowWidth="5712" windowHeight="5700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14244" windowHeight="7512"/>
   </bookViews>
   <sheets>
     <sheet name="Precio_Bolsa_Nacional_($kwh).rd" sheetId="1" r:id="rId1"/>
@@ -595,7 +600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,12 +755,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -797,7 +805,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -832,7 +840,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1044,12 +1052,12 @@
   <dimension ref="A1:Y169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1076,7 +1084,7 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" ht="15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1113,7 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
     </row>
-    <row r="3" spans="1:25" ht="15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1132,7 +1140,7 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
     </row>
-    <row r="4" spans="1:25" ht="15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1209,11 +1217,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
       <c r="C5" s="3">
         <v>1.073</v>
       </c>
@@ -1284,7 +1294,7 @@
         <v>1.073</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1361,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1438,7 +1448,7 @@
         <v>1.073</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1515,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -1592,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1669,7 +1679,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1746,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1823,7 +1833,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1900,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1977,7 +1987,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -2054,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -2131,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -2208,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -2285,7 +2295,7 @@
         <v>1.073</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -2362,7 +2372,7 @@
         <v>1.073</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -2439,7 +2449,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -2516,7 +2526,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -2593,7 +2603,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2670,7 +2680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -2747,7 +2757,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2824,7 +2834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2901,7 +2911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -2978,7 +2988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -3055,7 +3065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -3132,7 +3142,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
@@ -3209,7 +3219,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
@@ -3286,7 +3296,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
@@ -3363,7 +3373,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
@@ -3440,7 +3450,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
@@ -3517,7 +3527,7 @@
         <v>1.075</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
@@ -3594,7 +3604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
@@ -3671,7 +3681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
@@ -3748,7 +3758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -3825,7 +3835,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -3902,7 +3912,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
@@ -3979,7 +3989,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
@@ -4056,7 +4066,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
@@ -4133,7 +4143,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
@@ -4210,7 +4220,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
@@ -4287,7 +4297,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4364,7 +4374,7 @@
         <v>1.073</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>67</v>
       </c>
@@ -4441,7 +4451,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>68</v>
       </c>
@@ -4518,7 +4528,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
@@ -4595,7 +4605,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
@@ -4672,7 +4682,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
@@ -4749,7 +4759,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
@@ -4826,7 +4836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
@@ -4903,7 +4913,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>74</v>
       </c>
@@ -4980,7 +4990,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>75</v>
       </c>
@@ -5057,7 +5067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>76</v>
       </c>
@@ -5134,7 +5144,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>77</v>
       </c>
@@ -5211,7 +5221,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>78</v>
       </c>
@@ -5288,7 +5298,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>79</v>
       </c>
@@ -5365,7 +5375,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>80</v>
       </c>
@@ -5442,7 +5452,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>81</v>
       </c>
@@ -5519,7 +5529,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>82</v>
       </c>
@@ -5596,7 +5606,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
@@ -5673,7 +5683,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>84</v>
       </c>
@@ -5750,7 +5760,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>85</v>
       </c>
@@ -5827,7 +5837,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>86</v>
       </c>
@@ -5904,7 +5914,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>87</v>
       </c>
@@ -5981,7 +5991,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>88</v>
       </c>
@@ -6058,7 +6068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>89</v>
       </c>
@@ -6135,7 +6145,7 @@
         <v>1.075</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>90</v>
       </c>
@@ -6212,7 +6222,7 @@
         <v>1.075</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>91</v>
       </c>
@@ -6289,7 +6299,7 @@
         <v>1.075</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>92</v>
       </c>
@@ -6366,7 +6376,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>93</v>
       </c>
@@ -6443,7 +6453,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
@@ -6520,7 +6530,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -6597,7 +6607,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>96</v>
       </c>
@@ -6674,7 +6684,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>97</v>
       </c>
@@ -6751,7 +6761,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>98</v>
       </c>
@@ -6828,7 +6838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>99</v>
       </c>
@@ -6905,7 +6915,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>100</v>
       </c>
@@ -6982,7 +6992,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>101</v>
       </c>
@@ -7059,7 +7069,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>102</v>
       </c>
@@ -7136,7 +7146,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>103</v>
       </c>
@@ -7213,7 +7223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>104</v>
       </c>
@@ -7290,7 +7300,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>105</v>
       </c>
@@ -7367,7 +7377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>106</v>
       </c>
@@ -7444,7 +7454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>107</v>
       </c>
@@ -7521,7 +7531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>108</v>
       </c>
@@ -7598,7 +7608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>109</v>
       </c>
@@ -7675,7 +7685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>110</v>
       </c>
@@ -7752,7 +7762,7 @@
         <v>1.0720000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>111</v>
       </c>
@@ -7829,7 +7839,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>112</v>
       </c>
@@ -7906,7 +7916,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>113</v>
       </c>
@@ -7983,7 +7993,7 @@
         <v>1.073</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>114</v>
       </c>
@@ -8060,7 +8070,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>115</v>
       </c>
@@ -8137,7 +8147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>116</v>
       </c>
@@ -8214,7 +8224,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>117</v>
       </c>
@@ -8291,7 +8301,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>118</v>
       </c>
@@ -8368,7 +8378,7 @@
         <v>8.5739999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>119</v>
       </c>
@@ -8445,7 +8455,7 @@
         <v>8.5739999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>120</v>
       </c>
@@ -8522,7 +8532,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>121</v>
       </c>
@@ -8599,7 +8609,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>122</v>
       </c>
@@ -8676,7 +8686,7 @@
         <v>1.073</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>123</v>
       </c>
@@ -8753,7 +8763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>124</v>
       </c>
@@ -8830,7 +8840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>125</v>
       </c>
@@ -8907,7 +8917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>126</v>
       </c>
@@ -8984,7 +8994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>127</v>
       </c>
@@ -9061,7 +9071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>128</v>
       </c>
@@ -9138,7 +9148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>129</v>
       </c>
@@ -9215,7 +9225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>130</v>
       </c>
@@ -9292,7 +9302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>131</v>
       </c>
@@ -9369,7 +9379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>132</v>
       </c>
@@ -9446,7 +9456,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>133</v>
       </c>
@@ -9523,7 +9533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>134</v>
       </c>
@@ -9600,7 +9610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>135</v>
       </c>
@@ -9677,7 +9687,7 @@
         <v>4.9989999999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>136</v>
       </c>
@@ -9754,7 +9764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>137</v>
       </c>
@@ -9831,7 +9841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>138</v>
       </c>
@@ -9908,7 +9918,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>139</v>
       </c>
@@ -9985,7 +9995,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>140</v>
       </c>
@@ -10062,7 +10072,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>141</v>
       </c>
@@ -10139,7 +10149,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>142</v>
       </c>
@@ -10216,7 +10226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>143</v>
       </c>
@@ -10293,7 +10303,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>144</v>
       </c>
@@ -10370,7 +10380,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>145</v>
       </c>
@@ -10447,7 +10457,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>146</v>
       </c>
@@ -10524,7 +10534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>147</v>
       </c>
@@ -10601,7 +10611,7 @@
         <v>17.045999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -10678,7 +10688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>149</v>
       </c>
@@ -10755,7 +10765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>150</v>
       </c>
@@ -10832,7 +10842,7 @@
         <v>20.456</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>151</v>
       </c>
@@ -10909,7 +10919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>152</v>
       </c>
@@ -10986,7 +10996,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>153</v>
       </c>
@@ -11063,7 +11073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>154</v>
       </c>
@@ -11140,7 +11150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>155</v>
       </c>
@@ -11217,7 +11227,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="135" spans="1:25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>156</v>
       </c>
@@ -11294,7 +11304,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>157</v>
       </c>
@@ -11371,7 +11381,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>158</v>
       </c>
@@ -11448,7 +11458,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="138" spans="1:25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>159</v>
       </c>
@@ -11525,7 +11535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>160</v>
       </c>
@@ -11602,7 +11612,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="140" spans="1:25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>161</v>
       </c>
@@ -11679,7 +11689,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>162</v>
       </c>
@@ -11756,7 +11766,7 @@
         <v>130.001</v>
       </c>
     </row>
-    <row r="142" spans="1:25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>163</v>
       </c>
@@ -11833,7 +11843,7 @@
         <v>135.001</v>
       </c>
     </row>
-    <row r="143" spans="1:25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>164</v>
       </c>
@@ -11910,7 +11920,7 @@
         <v>137.41300000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>165</v>
       </c>
@@ -11987,7 +11997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="145" spans="1:25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>166</v>
       </c>
@@ -12064,7 +12074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="146" spans="1:25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>167</v>
       </c>
@@ -12141,7 +12151,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="147" spans="1:25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>168</v>
       </c>
@@ -12218,7 +12228,7 @@
         <v>170.6</v>
       </c>
     </row>
-    <row r="148" spans="1:25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>169</v>
       </c>
@@ -12295,7 +12305,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="149" spans="1:25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>170</v>
       </c>
@@ -12372,7 +12382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="1:25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>171</v>
       </c>
@@ -12449,7 +12459,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="1:25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>172</v>
       </c>
@@ -12526,7 +12536,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="152" spans="1:25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>173</v>
       </c>
@@ -12603,7 +12613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>174</v>
       </c>
@@ -12680,7 +12690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>175</v>
       </c>
@@ -12757,7 +12767,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>176</v>
       </c>
@@ -12834,7 +12844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>177</v>
       </c>
@@ -12911,7 +12921,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>178</v>
       </c>
@@ -12988,7 +12998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>179</v>
       </c>
@@ -13065,7 +13075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="1:25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>180</v>
       </c>
@@ -13142,7 +13152,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="160" spans="1:25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>181</v>
       </c>
@@ -13219,7 +13229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="1:25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>182</v>
       </c>
@@ -13296,7 +13306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>183</v>
       </c>
@@ -13373,7 +13383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>184</v>
       </c>
@@ -13450,7 +13460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>185</v>
       </c>
@@ -13527,7 +13537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>186</v>
       </c>
@@ -13604,7 +13614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>187</v>
       </c>
@@ -13681,7 +13691,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="167" spans="1:25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>188</v>
       </c>
@@ -13758,7 +13768,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="168" spans="1:25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>189</v>
       </c>
@@ -13835,7 +13845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>190</v>
       </c>
@@ -13926,7 +13936,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13938,31 +13948,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <M_x00e9_trica xmlns="1053b607-01f4-49d3-996a-42706195cb59" xsi:nil="true"/>
-    <Descripci_x00f3_n_x0020_Contenido xmlns="1053b607-01f4-49d3-996a-42706195cb59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010081F15821DEA74440826E0ABE6ED0431E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="7e9496f45e65ed9a2f15ea6e66860ba1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1053b607-01f4-49d3-996a-42706195cb59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="65b945c2a5fc5063e2f35c66e1076b14" ns2:_="">
     <xsd:import namespace="1053b607-01f4-49d3-996a-42706195cb59"/>
@@ -14098,14 +14090,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <M_x00e9_trica xmlns="1053b607-01f4-49d3-996a-42706195cb59" xsi:nil="true"/>
+    <Descripci_x00f3_n_x0020_Contenido xmlns="1053b607-01f4-49d3-996a-42706195cb59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEBB4D0-3A17-48E2-83C1-C2A9E55AAA04}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A67735ED-92EC-424A-A744-92EB96B6532A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1053b607-01f4-49d3-996a-42706195cb59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FAA41DD-5705-4C9C-809F-5D4B2C406D17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FAA41DD-5705-4C9C-809F-5D4B2C406D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A67735ED-92EC-424A-A744-92EB96B6532A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEBB4D0-3A17-48E2-83C1-C2A9E55AAA04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1053b607-01f4-49d3-996a-42706195cb59"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>